--- a/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
@@ -458,11 +458,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1161</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AAPL : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -476,8 +478,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1095</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AAPL : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -491,8 +495,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>817</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AAPL : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -503,11 +509,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1111</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABBV : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -521,8 +529,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>359</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ABC : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -536,8 +546,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1661</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ABC : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -551,8 +563,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>348</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ACIW : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -566,8 +580,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>456</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ACIW : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -578,11 +594,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1267</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ADP : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -596,8 +614,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>27</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AEE : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -608,11 +628,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>76</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AEP : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -626,8 +648,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>790</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AGCO : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -638,11 +662,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1164</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ALB : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -653,11 +679,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>496</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ALE : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -668,11 +696,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>566</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ALK : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -683,11 +713,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1092</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AMCX : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -698,11 +730,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1721</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AMCX : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -713,11 +747,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>143</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AMCX : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -728,11 +764,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1474</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AMGN : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -746,8 +784,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1469</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AMGN : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -761,8 +801,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>301</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AMGN : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -773,11 +815,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>469</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AMKR : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -788,11 +832,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>964</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>APA : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -803,11 +849,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1502</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>APD : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -821,8 +869,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>233</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>APD : 2012-04-01</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -836,8 +886,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>725</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>APD : 2012-10-01</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -848,11 +900,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>462</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>APD : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -866,8 +920,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1259</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AQN : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -881,8 +937,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1888</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AQN : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -896,8 +954,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>737</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ARW : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -911,8 +971,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1046</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ARW : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -926,8 +988,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>1706</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AVGO : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -941,8 +1005,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>157</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AVT : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -953,11 +1019,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>216</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AVT : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -968,11 +1036,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1537</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AZO : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -983,11 +1053,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1016</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BDC : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -998,11 +1070,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>454</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BDC : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1013,11 +1087,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>968</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BEP : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1031,8 +1107,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>1881</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BIG : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1046,8 +1124,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>406</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BIG : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1061,8 +1141,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>331</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BIIB : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1073,11 +1155,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1062</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BIIB : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1091,8 +1175,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>236</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BIIB : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1103,11 +1189,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>724</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BIO : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1118,11 +1206,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1214</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BLL : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1136,8 +1226,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1183</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BLL : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1151,8 +1243,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1355</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BLL : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1166,8 +1260,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>588</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BMY : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1178,11 +1274,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>648</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BMY : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1196,8 +1294,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>89</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BMY : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1211,8 +1311,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>567</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BMY : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1226,8 +1328,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>576</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BMY : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1238,11 +1342,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1930</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BSX : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1253,11 +1359,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1747</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAH : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1271,8 +1379,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>619</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAH : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1283,11 +1393,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1860</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAT : 2013-01-01</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1298,11 +1410,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1838</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAT : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1313,11 +1427,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1192</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CAT : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1328,11 +1444,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1358</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAT : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1343,11 +1461,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1535</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CBT : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1358,11 +1478,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>361</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CCI : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1373,11 +1495,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1556</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CCI : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1388,11 +1512,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1131</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CCI : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1406,8 +1532,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>97</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CCLP : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1418,11 +1546,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1869</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CCOI : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -1436,8 +1566,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>10</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CCOI : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1451,8 +1583,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>830</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CHTR : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1463,11 +1597,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>907</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CHTR : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1481,8 +1617,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>45</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CHTR : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1496,8 +1634,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>947</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CIEN : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1511,8 +1651,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>1451</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CIEN : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1526,8 +1668,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>500</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CLH : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1538,11 +1682,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>582</v>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CLMT : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -1556,8 +1702,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>575</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CLMT : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1571,8 +1719,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>1241</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CLMT : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -1586,8 +1736,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>1120</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CNSL : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1598,11 +1750,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>30</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CNSL : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -1616,8 +1770,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>1656</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>COO : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -1631,8 +1787,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>709</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>COP : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -1646,8 +1804,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>1319</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>COP : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -1658,11 +1818,13 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>435</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>COP : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -1673,11 +1835,13 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1905</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CSCO : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -1688,11 +1852,13 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>289</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CVGI : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -1706,8 +1872,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>1505</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CVGI : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -1721,8 +1889,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>125</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CVX : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -1736,8 +1906,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>1599</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CVX : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -1748,11 +1920,13 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>695</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CYH : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -1763,11 +1937,13 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>1593</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CYH : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -1778,11 +1954,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>688</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CYH : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -1793,11 +1971,13 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>413</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DAL : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -1811,8 +1991,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>55</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DAN : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -1823,11 +2005,13 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>1138</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DAN : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -1838,11 +2022,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>534</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DAN : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -1856,8 +2042,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>8</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>DHI : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -1868,11 +2056,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>1288</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>DHR : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -1886,8 +2076,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>904</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>DHR : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -1898,11 +2090,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>137</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DHR : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -1916,8 +2110,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>824</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>DHR : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -1931,8 +2127,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>1168</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>DHR : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -1943,11 +2141,13 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>911</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>DOV : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -1958,11 +2158,13 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>1864</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DOV : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -1976,8 +2178,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>1813</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DOV : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -1991,8 +2195,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>1688</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DOV : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -2006,8 +2212,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>645</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DOV : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -2018,11 +2226,13 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>669</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DTE : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -2036,8 +2246,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>1413</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DTE : 2012-04-01</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -2048,11 +2260,13 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>869</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DTE : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -2063,11 +2277,13 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>1043</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>DUK : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -2078,11 +2294,13 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>195</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DUK : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -2096,8 +2314,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>1764</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DVN : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -2108,11 +2328,13 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>554</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DVN : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -2126,8 +2348,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>1793</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DVN : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -2141,8 +2365,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>44</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ECL : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -2156,8 +2382,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>1756</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ECL : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -2168,11 +2396,13 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>326</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>EIX : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -2183,11 +2413,13 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>28</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>EIX : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -2198,11 +2430,13 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>1252</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>EIX : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -2216,8 +2450,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>256</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>EMN : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -2228,11 +2464,13 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>768</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>EMR : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -2243,11 +2481,13 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>199</v>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ENTG : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -2258,11 +2498,13 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>549</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>EPD : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -2273,11 +2515,13 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1048</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>EPR : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -2291,8 +2535,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>1318</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>EQIX : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -2303,11 +2549,13 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>1044</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>EQIX : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -2318,11 +2566,13 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>1522</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>EQT : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -2333,11 +2583,13 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>972</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>EQT : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -2348,11 +2600,13 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>1428</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>EQT : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -2363,11 +2617,13 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>1608</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ETN : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -2378,11 +2634,13 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>1341</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ETR : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -2393,11 +2651,13 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>166</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>EVC : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -2408,11 +2668,13 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>489</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>EXC : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -2423,11 +2685,13 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>116</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>EXC : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -2441,8 +2705,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>1779</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>FCN : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -2456,8 +2722,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>1153</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>FDX : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -2468,11 +2736,13 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>1944</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>FDX : 2013-01-01</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -2486,8 +2756,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>1912</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>FDX : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -2501,8 +2773,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>1775</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FISV : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -2513,11 +2787,13 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>1894</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>FLEX : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -2528,11 +2804,13 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>1766</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>FLEX : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -2543,11 +2821,13 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>1927</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>FLEX : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -2561,8 +2841,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>960</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>FLR : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -2576,8 +2858,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>1695</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>FLS : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -2591,8 +2875,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>319</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>FMC : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -2606,8 +2892,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>353</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>G : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -2621,8 +2909,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>729</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>GCI : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -2633,11 +2923,13 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>766</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>GEF : 2013-01-01</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -2648,11 +2940,13 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>860</v>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>GILD : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -2666,8 +2960,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>821</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>GILD : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -2678,11 +2974,13 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>1555</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>GILD : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -2696,8 +2994,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>1614</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>GOGO : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -2708,11 +3008,13 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>731</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>GOLD : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -2726,8 +3028,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>1632</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>GOOG : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -2741,8 +3045,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>317</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>GTN : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -2756,8 +3062,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>802</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>HBI : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -2768,11 +3076,13 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>1108</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>HCA : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -2786,8 +3096,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>258</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>HES : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -2798,11 +3110,13 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>1488</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>HES : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -2816,8 +3130,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>1799</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>HII : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -2831,8 +3147,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>1397</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>HOG : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -2846,8 +3164,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>495</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>HOLX : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -2861,8 +3181,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>478</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>HOLX : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -2876,8 +3198,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>1790</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>HON : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -2888,11 +3212,13 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>1383</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>HON : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -2906,8 +3232,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>335</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>HON : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -2921,8 +3249,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>430</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>HOV : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -2933,11 +3263,13 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>1296</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>HOV : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -2951,8 +3283,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>1889</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>HST : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -2966,8 +3300,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>921</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>HSY : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -2978,11 +3314,13 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>1802</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>HSY : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -2996,8 +3334,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>529</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>HUN : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -3011,8 +3351,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>890</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>HXL : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -3023,11 +3365,13 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>1026</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>IAC : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -3038,11 +3382,13 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>1707</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>IAC : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -3053,11 +3399,13 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>1054</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>IBM : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -3068,11 +3416,13 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>1190</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>III : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -3086,8 +3436,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>1743</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>III : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -3101,8 +3453,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>1208</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ILMN : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -3116,8 +3470,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>1100</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ILMN : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -3128,11 +3484,13 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>468</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>INTC : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -3146,8 +3504,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>392</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>INTC : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -3158,11 +3518,13 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>173</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>INTC : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -3176,8 +3538,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>1833</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>INTU : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -3188,11 +3552,13 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>167</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>IPG : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -3203,11 +3569,13 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>257</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>IRDM : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -3221,8 +3589,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>1205</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ITW : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -3236,8 +3606,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>896</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>JNJ : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -3248,11 +3620,13 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>1504</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>JNJ : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -3263,11 +3637,13 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>1102</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>JNPR : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -3281,8 +3657,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>1901</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>JNPR : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -3296,8 +3674,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>105</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>KMB : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -3311,8 +3691,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>1479</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>KMB : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -3323,11 +3705,13 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>1368</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>KMI : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -3338,11 +3722,13 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>1419</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>KMI : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -3356,8 +3742,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>488</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>KODK : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -3368,11 +3756,13 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>1676</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>KOP : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -3383,11 +3773,13 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>1227</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>KOS : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -3401,8 +3793,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>678</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>KTOS : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -3416,8 +3810,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>1697</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>KTOS : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -3428,11 +3824,13 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>1654</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>KW : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -3446,8 +3844,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>165</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>LLY : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -3461,8 +3861,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>1440</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>LLY : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -3473,11 +3875,13 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>329</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>LMT : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -3488,11 +3892,13 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>697</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>LNT : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -3503,11 +3909,13 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>1652</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>LNT : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -3521,8 +3929,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C206" t="n">
-        <v>508</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>LNT : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -3536,8 +3946,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>1396</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>LRCX : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -3551,8 +3963,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C208" t="n">
-        <v>1538</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>LUV : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="209">
@@ -3563,11 +3977,13 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>1364</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>LYV : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -3581,8 +3997,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>658</v>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MCO : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -3593,11 +4011,13 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>898</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>MDLZ : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="212">
@@ -3611,8 +4031,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>245</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>MDLZ : 2013-01-01</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -3623,11 +4045,13 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>1623</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>MDLZ : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -3638,11 +4062,13 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>1498</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>MDU : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="215">
@@ -3656,8 +4082,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v>92</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>MEOH : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -3668,11 +4096,13 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>1531</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>MERC : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -3686,8 +4116,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>1342</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>MLM : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -3701,8 +4133,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C218" t="n">
-        <v>391</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>MLM : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -3713,11 +4147,13 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>1027</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>MMP : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -3731,8 +4167,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C220" t="n">
-        <v>151</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>MOS : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -3746,8 +4184,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>1781</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>MPC : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -3761,8 +4201,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C222" t="n">
-        <v>938</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>MPC : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="223">
@@ -3776,8 +4218,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>31</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>MPC : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -3788,11 +4232,13 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>1468</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>MRC : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -3803,11 +4249,13 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>517</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>MRC : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="226">
@@ -3818,11 +4266,13 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>1655</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>MRC : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -3833,11 +4283,13 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>594</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>MRC : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -3851,8 +4303,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>1544</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>MRK : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="229">
@@ -3866,8 +4320,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C229" t="n">
-        <v>1633</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>MSCI : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -3881,8 +4337,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C230" t="n">
-        <v>110</v>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>MSFT : 2011-10-01</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -3896,8 +4354,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C231" t="n">
-        <v>540</v>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>MSFT : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -3911,8 +4371,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>1050</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>MSFT : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="233">
@@ -3923,11 +4385,13 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>613</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>MSFT : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -3941,8 +4405,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C234" t="n">
-        <v>1709</v>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>MSFT : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -3956,8 +4422,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C235" t="n">
-        <v>673</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>MSFT : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -3971,8 +4439,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C236" t="n">
-        <v>1194</v>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>MSFT : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -3983,11 +4453,13 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>944</v>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>MSI : 2011-10-01</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -4001,8 +4473,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C238" t="n">
-        <v>1013</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>MSI : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="239">
@@ -4016,8 +4490,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C239" t="n">
-        <v>51</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>MSI : 2013-01-01</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -4028,11 +4504,13 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>574</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>MSI : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="241">
@@ -4043,11 +4521,13 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>1815</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>MSI : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="242">
@@ -4061,8 +4541,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C242" t="n">
-        <v>1420</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>MSI : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -4073,11 +4555,13 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>905</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>MTN : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -4088,11 +4572,13 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>1373</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>MTW : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -4103,11 +4589,13 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>889</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>MTW : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -4118,11 +4606,13 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>499</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>MTX : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="247">
@@ -4136,8 +4626,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C247" t="n">
-        <v>622</v>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MTZ : 2012-10-01</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -4151,8 +4643,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C248" t="n">
-        <v>308</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>MUR : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -4163,11 +4657,13 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>1649</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>NCR : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -4178,11 +4674,13 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>1908</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>NEE : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="251">
@@ -4193,11 +4691,13 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v>1796</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>NEE : 2012-04-01</t>
+        </is>
       </c>
     </row>
     <row r="252">
@@ -4208,11 +4708,13 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>1353</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>NEE : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="253">
@@ -4223,11 +4725,13 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>646</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>NEM : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="254">
@@ -4241,8 +4745,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C254" t="n">
-        <v>498</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>NFLX : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="255">
@@ -4253,11 +4759,13 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>74</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>NFLX : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -4268,11 +4776,13 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C256" t="n">
-        <v>1916</v>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>NFLX : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -4286,8 +4796,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C257" t="n">
-        <v>914</v>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>NGD : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -4298,11 +4810,13 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v>457</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>NGL : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -4316,8 +4830,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C259" t="n">
-        <v>1527</v>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>NOC : 2012-04-01</t>
+        </is>
       </c>
     </row>
     <row r="260">
@@ -4331,8 +4847,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C260" t="n">
-        <v>1457</v>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>NOC : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -4346,8 +4864,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C261" t="n">
-        <v>144</v>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>NOC : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -4361,8 +4881,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C262" t="n">
-        <v>1149</v>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>NOC : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="263">
@@ -4373,11 +4895,13 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>882</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>NRG : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="264">
@@ -4388,11 +4912,13 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>1028</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>NRG : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -4403,11 +4929,13 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>1189</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>NTAP : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="266">
@@ -4421,8 +4949,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C266" t="n">
-        <v>154</v>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>NTAP : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -4436,8 +4966,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C267" t="n">
-        <v>99</v>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>NTAP : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="268">
@@ -4451,8 +4983,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C268" t="n">
-        <v>1817</v>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>NTAP : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="269">
@@ -4466,8 +5000,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C269" t="n">
-        <v>398</v>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>NTAP : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -4481,8 +5017,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C270" t="n">
-        <v>472</v>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>NVDA : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="271">
@@ -4496,8 +5034,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C271" t="n">
-        <v>700</v>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>NVDA : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="272">
@@ -4508,11 +5048,13 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v>46</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>NWE : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -4523,11 +5065,13 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C273" t="n">
-        <v>1497</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>OC : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="274">
@@ -4541,8 +5085,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C274" t="n">
-        <v>851</v>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>OMC : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="275">
@@ -4556,8 +5102,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C275" t="n">
-        <v>1315</v>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>OMC : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="276">
@@ -4568,11 +5116,13 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C276" t="n">
-        <v>169</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>OMC : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="277">
@@ -4586,8 +5136,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C277" t="n">
-        <v>1570</v>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>ORCL : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="278">
@@ -4601,8 +5153,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C278" t="n">
-        <v>975</v>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>ORCL : 2013-07-01</t>
+        </is>
       </c>
     </row>
     <row r="279">
@@ -4613,11 +5167,13 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C279" t="n">
-        <v>1910</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>ORCL : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="280">
@@ -4628,11 +5184,13 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C280" t="n">
-        <v>39</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>ORCL : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="281">
@@ -4646,8 +5204,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C281" t="n">
-        <v>530</v>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>ORLY : 2012-10-01</t>
+        </is>
       </c>
     </row>
     <row r="282">
@@ -4661,8 +5221,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C282" t="n">
-        <v>231</v>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>OTEX : 2012-10-01</t>
+        </is>
       </c>
     </row>
     <row r="283">
@@ -4676,8 +5238,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C283" t="n">
-        <v>1698</v>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>OTEX : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="284">
@@ -4691,8 +5255,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C284" t="n">
-        <v>586</v>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>OTEX : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="285">
@@ -4706,8 +5272,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C285" t="n">
-        <v>1819</v>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>PAA : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="286">
@@ -4718,11 +5286,13 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C286" t="n">
-        <v>1218</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>PAA : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="287">
@@ -4733,11 +5303,13 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C287" t="n">
-        <v>81</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>PAA : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="288">
@@ -4748,11 +5320,13 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>160</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>PAG : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="289">
@@ -4763,11 +5337,13 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C289" t="n">
-        <v>1073</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>PBI : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="290">
@@ -4778,11 +5354,13 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>568</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>PCAR : 2013-01-01</t>
+        </is>
       </c>
     </row>
     <row r="291">
@@ -4796,8 +5374,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C291" t="n">
-        <v>858</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>PCAR : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="292">
@@ -4811,8 +5391,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C292" t="n">
-        <v>1566</v>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>PCAR : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="293">
@@ -4823,11 +5405,13 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>1783</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>PCG : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="294">
@@ -4838,11 +5422,13 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>1780</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>PCG : 2012-10-01</t>
+        </is>
       </c>
     </row>
     <row r="295">
@@ -4853,11 +5439,13 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>1177</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>PCG : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="296">
@@ -4868,11 +5456,13 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>286</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>PCG : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="297">
@@ -4886,8 +5476,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C297" t="n">
-        <v>1462</v>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>PCG : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="298">
@@ -4898,11 +5490,13 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>1057</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>PEG : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="299">
@@ -4913,11 +5507,13 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>749</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>PEG : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="300">
@@ -4931,8 +5527,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C300" t="n">
-        <v>1924</v>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>PEP : 2011-07-01</t>
+        </is>
       </c>
     </row>
     <row r="301">
@@ -4946,8 +5544,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C301" t="n">
-        <v>1690</v>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>PEP : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="302">
@@ -4961,8 +5561,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C302" t="n">
-        <v>988</v>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>PKI : 2012-04-01</t>
+        </is>
       </c>
     </row>
     <row r="303">
@@ -4973,11 +5575,13 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>189</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>PNM : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="304">
@@ -4991,8 +5595,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C304" t="n">
-        <v>479</v>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>PNW : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="305">
@@ -5006,8 +5612,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C305" t="n">
-        <v>1123</v>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>POR : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="306">
@@ -5018,11 +5626,13 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v>1552</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>POR : 2012-07-01</t>
+        </is>
       </c>
     </row>
     <row r="307">
@@ -5033,11 +5643,13 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C307" t="n">
-        <v>1079</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>POR : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="308">
@@ -5051,8 +5663,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C308" t="n">
-        <v>217</v>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>POR : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="309">
@@ -5063,11 +5677,13 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>883</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>PVH : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="310">
@@ -5081,8 +5697,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C310" t="n">
-        <v>298</v>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>ROK : 2012-04-01</t>
+        </is>
       </c>
     </row>
     <row r="311">
@@ -5093,11 +5711,13 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v>1855</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ROP : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="312">
@@ -5111,8 +5731,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C312" t="n">
-        <v>322</v>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>RRC : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="313">
@@ -5123,11 +5745,13 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C313" t="n">
-        <v>1330</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>RRC : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="314">
@@ -5141,8 +5765,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C314" t="n">
-        <v>1175</v>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>RRC : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="315">
@@ -5156,8 +5782,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C315" t="n">
-        <v>1560</v>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>RS : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="316">
@@ -5171,8 +5799,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C316" t="n">
-        <v>535</v>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>RS : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="317">
@@ -5183,11 +5813,13 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>879</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>RS : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -5201,8 +5833,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C318" t="n">
-        <v>1928</v>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SALM : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -5216,8 +5850,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C319" t="n">
-        <v>1651</v>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>SBAC : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="320">
@@ -5228,11 +5864,13 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>1372</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SBGI : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="321">
@@ -5246,8 +5884,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C321" t="n">
-        <v>1696</v>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>SBUX : 2012-01-01</t>
+        </is>
       </c>
     </row>
     <row r="322">
@@ -5261,8 +5901,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C322" t="n">
-        <v>336</v>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>SBUX : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -5276,8 +5918,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C323" t="n">
-        <v>354</v>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>SBUX : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="324">
@@ -5291,8 +5935,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C324" t="n">
-        <v>1728</v>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SBUX : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -5303,11 +5949,13 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>1470</v>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>SLCA : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="326">
@@ -5321,8 +5969,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C326" t="n">
-        <v>876</v>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SNA : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="327">
@@ -5336,8 +5986,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C327" t="n">
-        <v>1926</v>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>SPR : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -5351,8 +6003,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C328" t="n">
-        <v>1624</v>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>SSP : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="329">
@@ -5366,8 +6020,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C329" t="n">
-        <v>1307</v>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>SSP : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="330">
@@ -5381,8 +6037,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C330" t="n">
-        <v>404</v>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>SSP : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="331">
@@ -5396,8 +6054,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C331" t="n">
-        <v>1329</v>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>SSP : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="332">
@@ -5411,8 +6071,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C332" t="n">
-        <v>1390</v>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>STX : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="333">
@@ -5423,11 +6085,13 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>775</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>SWK : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="334">
@@ -5438,11 +6102,13 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C334" t="n">
-        <v>59</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>SWN : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="335">
@@ -5453,11 +6119,13 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C335" t="n">
-        <v>915</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>SWN : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="336">
@@ -5471,8 +6139,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C336" t="n">
-        <v>861</v>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>SXC : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="337">
@@ -5483,11 +6153,13 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C337" t="n">
-        <v>672</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>SYK : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="338">
@@ -5498,11 +6170,13 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C338" t="n">
-        <v>1136</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>TDS : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="339">
@@ -5513,11 +6187,13 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>1163</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>TDS : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="340">
@@ -5531,8 +6207,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C340" t="n">
-        <v>840</v>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>TFX : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="341">
@@ -5543,11 +6221,13 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C341" t="n">
-        <v>1195</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>TGI : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="342">
@@ -5558,11 +6238,13 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v>814</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>TGNA : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="343">
@@ -5576,8 +6258,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C343" t="n">
-        <v>684</v>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>TGNA : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="344">
@@ -5588,11 +6272,13 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>885</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>TGT : 2013-04-01</t>
+        </is>
       </c>
     </row>
     <row r="345">
@@ -5606,8 +6292,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C345" t="n">
-        <v>632</v>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>TGT : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="346">
@@ -5618,11 +6306,13 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C346" t="n">
-        <v>652</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>THC : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="347">
@@ -5633,11 +6323,13 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>307</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>THC : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="348">
@@ -5651,8 +6343,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C348" t="n">
-        <v>275</v>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>THS : 2013-10-01</t>
+        </is>
       </c>
     </row>
     <row r="349">
@@ -5663,11 +6357,13 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C349" t="n">
-        <v>1627</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>THS : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="350">
@@ -5678,11 +6374,13 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C350" t="n">
-        <v>1262</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>TMUS : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="351">
@@ -5693,11 +6391,13 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C351" t="n">
-        <v>987</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>TMUS : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="352">
@@ -5711,8 +6411,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C352" t="n">
-        <v>455</v>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>TMUS : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="353">
@@ -5723,11 +6425,13 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C353" t="n">
-        <v>1139</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>TOL : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="354">
@@ -5741,8 +6445,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C354" t="n">
-        <v>597</v>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>TOL : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="355">
@@ -5756,8 +6462,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C355" t="n">
-        <v>1820</v>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>TUP : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="356">
@@ -5771,8 +6479,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C356" t="n">
-        <v>124</v>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>TUP : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="357">
@@ -5786,8 +6496,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C357" t="n">
-        <v>798</v>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>TWI : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="358">
@@ -5801,8 +6513,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C358" t="n">
-        <v>1118</v>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>TXN : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="359">
@@ -5816,8 +6530,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C359" t="n">
-        <v>284</v>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>TXN : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="360">
@@ -5831,8 +6547,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C360" t="n">
-        <v>674</v>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>UHS : 2016-10-01</t>
+        </is>
       </c>
     </row>
     <row r="361">
@@ -5846,8 +6564,10 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C361" t="n">
-        <v>153</v>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>UIS : 2015-01-01</t>
+        </is>
       </c>
     </row>
     <row r="362">
@@ -5858,11 +6578,13 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C362" t="n">
-        <v>901</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>USM : 2015-04-01</t>
+        </is>
       </c>
     </row>
     <row r="363">
@@ -5876,8 +6598,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C363" t="n">
-        <v>264</v>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>VC : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="364">
@@ -5888,11 +6612,13 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C364" t="n">
-        <v>375</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>VC : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="365">
@@ -5906,8 +6632,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C365" t="n">
-        <v>18</v>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>VGR : 2015-10-01</t>
+        </is>
       </c>
     </row>
     <row r="366">
@@ -5918,11 +6646,13 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C366" t="n">
-        <v>891</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>VGR : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="367">
@@ -5936,8 +6666,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C367" t="n">
-        <v>1839</v>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>WBA : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="368">
@@ -5948,11 +6680,13 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C368" t="n">
-        <v>1831</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>WEC : 2015-07-01</t>
+        </is>
       </c>
     </row>
     <row r="369">
@@ -5963,11 +6697,13 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C369" t="n">
-        <v>1564</v>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>WM : 2016-01-01</t>
+        </is>
       </c>
     </row>
     <row r="370">
@@ -5978,11 +6714,13 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C370" t="n">
-        <v>694</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>WMB : 2014-07-01</t>
+        </is>
       </c>
     </row>
     <row r="371">
@@ -5993,11 +6731,13 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C371" t="n">
-        <v>1406</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>WMB : 2014-10-01</t>
+        </is>
       </c>
     </row>
     <row r="372">
@@ -6008,11 +6748,13 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="C372" t="n">
-        <v>738</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>WTI : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="373">
@@ -6026,8 +6768,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C373" t="n">
-        <v>1314</v>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>WWW : 2016-04-01</t>
+        </is>
       </c>
     </row>
     <row r="374">
@@ -6038,11 +6782,13 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="C374" t="n">
-        <v>1007</v>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>XEL : 2016-07-01</t>
+        </is>
       </c>
     </row>
     <row r="375">
@@ -6056,8 +6802,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C375" t="n">
-        <v>306</v>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>XOM : 2014-01-01</t>
+        </is>
       </c>
     </row>
     <row r="376">
@@ -6071,8 +6819,10 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="C376" t="n">
-        <v>370</v>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>YUM : 2014-04-01</t>
+        </is>
       </c>
     </row>
     <row r="377">
@@ -6086,8 +6836,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="C377" t="n">
-        <v>43</v>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>ZBRA : 2016-04-01</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C377"/>
+  <dimension ref="A1:C403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,19 +458,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AAPL : 2014-10-01</t>
+          <t>AAPL : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,24 +480,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AAPL : 2015-01-01</t>
+          <t>ABBV : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AAPL : 2015-10-01</t>
+          <t>ABBV : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ABBV : 2015-10-01</t>
+          <t>ABC : 2013-04-01</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ABC : 2013-04-01</t>
+          <t>ABC : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABC : 2013-10-01</t>
+          <t>ABT : 2013-01-01</t>
         </is>
       </c>
     </row>
@@ -560,29 +560,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ACIW : 2014-07-01</t>
+          <t>ACIW : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACIW : 2016-10-01</t>
+          <t>ADP : 2012-04-01</t>
         </is>
       </c>
     </row>
@@ -594,46 +594,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADP : 2014-07-01</t>
+          <t>ADP : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AEE : 2016-10-01</t>
+          <t>ADP : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AEP : 2016-10-01</t>
+          <t>ADP : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AGCO : 2014-01-01</t>
+          <t>ADSK : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -662,29 +662,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ALB : 2015-07-01</t>
+          <t>ADSK : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALE : 2016-10-01</t>
+          <t>AEE : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -696,53 +696,53 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALK : 2013-04-01</t>
+          <t>AIR : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AMCX : 2014-04-01</t>
+          <t>AIR : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AMCX : 2015-01-01</t>
+          <t>ALB : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -752,14 +752,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AMCX : 2016-01-01</t>
+          <t>ALE : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -769,14 +769,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AMGN : 2013-07-01</t>
+          <t>ALK : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -786,14 +786,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AMGN : 2014-10-01</t>
+          <t>ALLE : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AMGN : 2016-01-01</t>
+          <t>AMCX : 2014-04-01</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AMKR : 2015-01-01</t>
+          <t>AMCX : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>APA : 2016-04-01</t>
+          <t>AMGN : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>APD : 2012-01-01</t>
+          <t>AMGN : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>APD : 2012-04-01</t>
+          <t>AMGN : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>APD : 2012-10-01</t>
+          <t>AMGN : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>APD : 2016-04-01</t>
+          <t>AMGN : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -917,36 +917,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AQN : 2015-10-01</t>
+          <t>AMKR : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AQN : 2016-04-01</t>
+          <t>AMZN : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARW : 2014-01-01</t>
+          <t>APD : 2012-10-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARW : 2014-04-01</t>
+          <t>APD : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -990,24 +990,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AVGO : 2016-10-01</t>
+          <t>APH : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AVT : 2013-04-01</t>
+          <t>AQN : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AVT : 2014-10-01</t>
+          <t>ARW : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AZO : 2015-04-01</t>
+          <t>ARW : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BDC : 2015-01-01</t>
+          <t>ARW : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BDC : 2016-04-01</t>
+          <t>ATO : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BEP : 2016-07-01</t>
+          <t>ATVI : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BIG : 2014-01-01</t>
+          <t>ATVI : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -1126,48 +1126,48 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BIG : 2015-01-01</t>
+          <t>AVT : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BIIB : 2015-10-01</t>
+          <t>AVT : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BIIB : 2016-01-01</t>
+          <t>AVT : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BIIB : 2016-10-01</t>
+          <t>AVT : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1194,65 +1194,65 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BIO : 2016-10-01</t>
+          <t>AVT : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BLL : 2012-01-01</t>
+          <t>AXL : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BLL : 2014-04-01</t>
+          <t>AXL : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BLL : 2015-01-01</t>
+          <t>AZO : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BMY : 2012-07-01</t>
+          <t>BAX : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -1274,97 +1274,97 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BMY : 2015-04-01</t>
+          <t>BAX : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BMY : 2015-10-01</t>
+          <t>BDC : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BMY : 2016-01-01</t>
+          <t>BDC : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BMY : 2016-10-01</t>
+          <t>BEP : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BSX : 2015-10-01</t>
+          <t>BIIB : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CAH : 2013-07-01</t>
+          <t>BKH : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CAH : 2014-01-01</t>
+          <t>BMY : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -1393,63 +1393,63 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CAT : 2013-01-01</t>
+          <t>BMY : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CAT : 2014-07-01</t>
+          <t>CACI : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CAT : 2015-10-01</t>
+          <t>CACI : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CAT : 2016-01-01</t>
+          <t>CAL : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -1461,53 +1461,53 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CBT : 2013-07-01</t>
+          <t>CAT : 2013-01-01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CCI : 2016-01-01</t>
+          <t>CAT : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CCI : 2016-04-01</t>
+          <t>CAT : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1517,58 +1517,58 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CCI : 2016-10-01</t>
+          <t>CCI : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CCLP : 2016-10-01</t>
+          <t>CCI : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CCOI : 2013-10-01</t>
+          <t>CCI : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CCOI : 2015-07-01</t>
+          <t>CCI : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -1580,138 +1580,138 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CHTR : 2015-01-01</t>
+          <t>CENT : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CHTR : 2015-10-01</t>
+          <t>CLH : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHTR : 2016-04-01</t>
+          <t>CLMT : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CIEN : 2014-10-01</t>
+          <t>COO : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CIEN : 2015-01-01</t>
+          <t>COP : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CLH : 2014-01-01</t>
+          <t>COST : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CLMT : 2013-10-01</t>
+          <t>CRK : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CLMT : 2014-01-01</t>
+          <t>CSCO : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1721,48 +1721,48 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CLMT : 2014-10-01</t>
+          <t>CSGS : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CNSL : 2013-07-01</t>
+          <t>CSX : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CNSL : 2016-01-01</t>
+          <t>CSX : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1772,14 +1772,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>COO : 2016-07-01</t>
+          <t>CSX : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1789,41 +1789,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>COP : 2013-04-01</t>
+          <t>CVGI : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>COP : 2014-07-01</t>
+          <t>CVX : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>COP : 2015-10-01</t>
+          <t>CVX : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -1835,36 +1835,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CSCO : 2016-01-01</t>
+          <t>CVX : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CVGI : 2014-07-01</t>
+          <t>CVX : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1874,116 +1874,116 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CVGI : 2014-10-01</t>
+          <t>CWT : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CVX : 2014-04-01</t>
+          <t>CYH : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CVX : 2015-01-01</t>
+          <t>DAL : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CYH : 2015-01-01</t>
+          <t>DAN : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CYH : 2016-07-01</t>
+          <t>DAN : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CYH : 2016-10-01</t>
+          <t>DGX : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DAL : 2015-10-01</t>
+          <t>DHR : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1993,14 +1993,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DAN : 2014-07-01</t>
+          <t>DOV : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2010,31 +2010,31 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DAN : 2014-10-01</t>
+          <t>DOV : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DAN : 2016-04-01</t>
+          <t>DOV : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DHI : 2014-10-01</t>
+          <t>DOV : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -2056,36 +2056,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DHR : 2014-07-01</t>
+          <t>DTE : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DHR : 2015-04-01</t>
+          <t>DTE : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2095,65 +2095,65 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DHR : 2015-07-01</t>
+          <t>DTE : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DHR : 2016-07-01</t>
+          <t>DUK : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DHR : 2016-10-01</t>
+          <t>DUK : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DOV : 2013-04-01</t>
+          <t>DUK : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DOV : 2014-10-01</t>
+          <t>DVN : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DOV : 2015-04-01</t>
+          <t>DVN : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2197,14 +2197,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DOV : 2015-07-01</t>
+          <t>DVN : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2214,31 +2214,31 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DOV : 2016-04-01</t>
+          <t>DVN : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DTE : 2012-01-01</t>
+          <t>EBAY : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2248,31 +2248,31 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DTE : 2012-04-01</t>
+          <t>EIX : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DTE : 2013-04-01</t>
+          <t>EIX : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2282,41 +2282,41 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DUK : 2013-07-01</t>
+          <t>EIX : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DUK : 2015-01-01</t>
+          <t>EMN : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DVN : 2013-10-01</t>
+          <t>EMN : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -2328,36 +2328,36 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DVN : 2014-01-01</t>
+          <t>EMN : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DVN : 2015-01-01</t>
+          <t>EMR : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2367,14 +2367,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ECL : 2012-01-01</t>
+          <t>EMR : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2384,24 +2384,24 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ECL : 2016-07-01</t>
+          <t>EOG : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIX : 2013-04-01</t>
+          <t>EPD : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EIX : 2016-07-01</t>
+          <t>EPD : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EIX : 2016-10-01</t>
+          <t>EPD : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -2452,24 +2452,24 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>EMN : 2014-07-01</t>
+          <t>EPD : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EMR : 2013-07-01</t>
+          <t>EPD : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ENTG : 2015-07-01</t>
+          <t>EQIX : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -2498,36 +2498,36 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EPD : 2014-07-01</t>
+          <t>EQT : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>EPR : 2015-01-01</t>
+          <t>ETN : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2537,41 +2537,41 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>EQIX : 2013-07-01</t>
+          <t>ETR : 2012-01-01</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>EQIX : 2015-10-01</t>
+          <t>ETR : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EQT : 2012-01-01</t>
+          <t>ETR : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -2583,97 +2583,97 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EQT : 2014-01-01</t>
+          <t>EXC : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EQT : 2016-10-01</t>
+          <t>FCN : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ETN : 2014-10-01</t>
+          <t>FCX : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ETR : 2015-01-01</t>
+          <t>FCX : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>EVC : 2014-07-01</t>
+          <t>FLEX : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EXC : 2012-01-01</t>
+          <t>FLR : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -2685,19 +2685,19 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>EXC : 2016-01-01</t>
+          <t>FLR : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>FCN : 2016-07-01</t>
+          <t>FLR : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -2724,14 +2724,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>FDX : 2012-01-01</t>
+          <t>FLS : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2741,14 +2741,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>FDX : 2013-01-01</t>
+          <t>FLS : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FDX : 2014-04-01</t>
+          <t>FLT : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>FISV : 2014-07-01</t>
+          <t>FMC : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>FLEX : 2013-10-01</t>
+          <t>GCI : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -2804,46 +2804,46 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>FLEX : 2015-01-01</t>
+          <t>GEL : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>FLEX : 2015-10-01</t>
+          <t>GFF : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>FLR : 2015-04-01</t>
+          <t>GILD : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>FLS : 2016-01-01</t>
+          <t>GIS : 2014-04-01</t>
         </is>
       </c>
     </row>
@@ -2872,19 +2872,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>FMC : 2015-01-01</t>
+          <t>GLW : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2894,41 +2894,41 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>G : 2016-07-01</t>
+          <t>HAL : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GCI : 2016-04-01</t>
+          <t>HAS : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>GEF : 2013-01-01</t>
+          <t>HAS : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -2940,70 +2940,70 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>GILD : 2013-10-01</t>
+          <t>HAS : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>GILD : 2015-01-01</t>
+          <t>HBI : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>GILD : 2015-07-01</t>
+          <t>HBI : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GOGO : 2016-10-01</t>
+          <t>HCA : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3013,48 +3013,48 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>GOLD : 2013-07-01</t>
+          <t>HCA : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>GOOG : 2016-04-01</t>
+          <t>HES : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>GTN : 2016-10-01</t>
+          <t>HII : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3064,82 +3064,82 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>HBI : 2013-07-01</t>
+          <t>HII : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HCA : 2016-04-01</t>
+          <t>HOLX : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HES : 2015-01-01</t>
+          <t>HOLX : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HES : 2016-04-01</t>
+          <t>HOLX : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HII : 2016-04-01</t>
+          <t>HON : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3149,41 +3149,41 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>HOG : 2016-07-01</t>
+          <t>HON : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HOLX : 2013-10-01</t>
+          <t>HON : 2013-01-01</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HOLX : 2015-01-01</t>
+          <t>HON : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -3200,75 +3200,75 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HON : 2012-01-01</t>
+          <t>HON : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HON : 2013-07-01</t>
+          <t>HOV : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HON : 2016-04-01</t>
+          <t>HOV : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HOV : 2013-04-01</t>
+          <t>HSY : 2011-10-01</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HOV : 2015-10-01</t>
+          <t>HSY : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -3285,14 +3285,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HST : 2016-07-01</t>
+          <t>HXL : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3302,31 +3302,31 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HSY : 2015-07-01</t>
+          <t>IAC : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>HSY : 2016-04-01</t>
+          <t>IAC : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3336,82 +3336,82 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HUN : 2014-01-01</t>
+          <t>IAC : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HXL : 2016-10-01</t>
+          <t>III : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>IAC : 2016-04-01</t>
+          <t>III : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>IAC : 2016-10-01</t>
+          <t>III : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>IBM : 2015-04-01</t>
+          <t>INTC : 2012-01-01</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3421,14 +3421,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>III : 2014-10-01</t>
+          <t>INTC : 2013-01-01</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3438,65 +3438,65 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>III : 2015-01-01</t>
+          <t>INTC : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ILMN : 2015-10-01</t>
+          <t>INTC : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ILMN : 2016-07-01</t>
+          <t>INTC : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>INTC : 2012-01-01</t>
+          <t>INTC : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3506,65 +3506,65 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>INTC : 2012-07-01</t>
+          <t>INTC : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>INTC : 2015-10-01</t>
+          <t>IPG : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>INTU : 2016-07-01</t>
+          <t>IRDM : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>IPG : 2014-07-01</t>
+          <t>IRDM : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>IRDM : 2013-10-01</t>
+          <t>JBLU : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -3591,14 +3591,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ITW : 2016-01-01</t>
+          <t>JNJ : 2012-01-01</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3608,14 +3608,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>JNJ : 2014-10-01</t>
+          <t>JNJ : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>JNJ : 2016-01-01</t>
+          <t>JNPR : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>JNPR : 2014-01-01</t>
+          <t>JNPR : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>JNPR : 2016-07-01</t>
+          <t>JNPR : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3676,58 +3676,58 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>KMB : 2014-01-01</t>
+          <t>JNPR : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>KMB : 2016-10-01</t>
+          <t>JWN : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>KMI : 2015-01-01</t>
+          <t>KEYS : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>KMI : 2016-01-01</t>
+          <t>KMB : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3751,92 +3751,92 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>KOP : 2015-07-01</t>
+          <t>KOS : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>KOS : 2016-01-01</t>
+          <t>KSS : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>KTOS : 2014-10-01</t>
+          <t>KSS : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>KTOS : 2016-07-01</t>
+          <t>KW : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>KW : 2015-01-01</t>
+          <t>LAMR : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3846,14 +3846,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>LLY : 2015-04-01</t>
+          <t>LAMR : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3863,14 +3863,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>LLY : 2016-04-01</t>
+          <t>LKQ : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3880,58 +3880,58 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>LMT : 2016-04-01</t>
+          <t>LLY : 2012-01-01</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>LNT : 2014-07-01</t>
+          <t>LLY : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>LNT : 2015-10-01</t>
+          <t>LLY : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>LNT : 2016-10-01</t>
+          <t>LPX : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>LRCX : 2016-10-01</t>
+          <t>LRCX : 2013-07-01</t>
         </is>
       </c>
     </row>
@@ -3960,19 +3960,19 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LUV : 2013-10-01</t>
+          <t>LUV : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>LYV : 2015-07-01</t>
+          <t>LUV : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MCO : 2014-07-01</t>
+          <t>LUV : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MDLZ : 2012-07-01</t>
+          <t>LUV : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -4033,48 +4033,48 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MDLZ : 2013-01-01</t>
+          <t>LVS : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MDLZ : 2015-01-01</t>
+          <t>LYV : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MDU : 2015-04-01</t>
+          <t>MCHP : 2012-10-01</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4084,31 +4084,31 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MEOH : 2013-07-01</t>
+          <t>MCHP : 2013-01-01</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MERC : 2014-01-01</t>
+          <t>MCHP : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4118,14 +4118,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MLM : 2012-07-01</t>
+          <t>MCHP : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4135,24 +4135,24 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MLM : 2014-01-01</t>
+          <t>MCHP : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MMP : 2014-10-01</t>
+          <t>MCO : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MOS : 2016-04-01</t>
+          <t>MCO : 2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MPC : 2015-01-01</t>
+          <t>MCO : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MPC : 2015-07-01</t>
+          <t>MCO : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -4215,53 +4215,53 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>MPC : 2015-10-01</t>
+          <t>MCO : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MRC : 2013-07-01</t>
+          <t>MCO : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MRC : 2014-01-01</t>
+          <t>MDLZ : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4271,31 +4271,31 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MRC : 2014-04-01</t>
+          <t>MDLZ : 2012-10-01</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>MRC : 2015-01-01</t>
+          <t>MDLZ : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4305,65 +4305,65 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MRK : 2016-01-01</t>
+          <t>MEOH : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MSCI : 2015-04-01</t>
+          <t>MERC : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MSFT : 2011-10-01</t>
+          <t>MGM : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MSFT : 2012-01-01</t>
+          <t>MLM : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4373,116 +4373,116 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MSFT : 2012-07-01</t>
+          <t>MLM : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MSFT : 2013-10-01</t>
+          <t>MMM : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MSFT : 2014-04-01</t>
+          <t>MMP : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MSFT : 2014-07-01</t>
+          <t>MMP : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MSFT : 2015-10-01</t>
+          <t>MMP : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MSI : 2011-10-01</t>
+          <t>MRC : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MSI : 2012-01-01</t>
+          <t>MRC : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4492,14 +4492,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MSI : 2013-01-01</t>
+          <t>MRK : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4509,184 +4509,184 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MSI : 2013-10-01</t>
+          <t>MRK : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>MSI : 2015-01-01</t>
+          <t>MSFT : 2011-10-01</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MSI : 2016-07-01</t>
+          <t>MSFT : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MTN : 2016-01-01</t>
+          <t>MSFT : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MTW : 2016-04-01</t>
+          <t>MSI : 2011-10-01</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MTW : 2016-07-01</t>
+          <t>MSI : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MTX : 2015-01-01</t>
+          <t>MSI : 2013-01-01</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MTZ : 2012-10-01</t>
+          <t>MSI : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MUR : 2016-10-01</t>
+          <t>MSI : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>NCR : 2015-01-01</t>
+          <t>MSI : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>NEE : 2012-01-01</t>
+          <t>MTN : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4696,41 +4696,41 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>NEE : 2012-04-01</t>
+          <t>MTZ : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>NEE : 2016-10-01</t>
+          <t>MTZ : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>NEM : 2014-04-01</t>
+          <t>MUR : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>NFLX : 2014-07-01</t>
+          <t>NCR : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -4759,29 +4759,29 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>NFLX : 2014-10-01</t>
+          <t>NCR : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>NFLX : 2015-04-01</t>
+          <t>NCR : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>NGD : 2014-04-01</t>
+          <t>NCR : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>NGL : 2015-04-01</t>
+          <t>NEE : 2012-01-01</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>NOC : 2012-04-01</t>
+          <t>NEE : 2012-04-01</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>NOC : 2014-10-01</t>
+          <t>NEE : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -4866,14 +4866,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>NOC : 2015-10-01</t>
+          <t>NEM : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>NOC : 2016-10-01</t>
+          <t>NFG : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -4895,63 +4895,63 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>NRG : 2014-01-01</t>
+          <t>NFLX : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>NRG : 2016-01-01</t>
+          <t>NFLX : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>NTAP : 2013-07-01</t>
+          <t>NGL : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>NTAP : 2013-10-01</t>
+          <t>NGL : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>NTAP : 2014-04-01</t>
+          <t>NOC : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>NTAP : 2014-10-01</t>
+          <t>NOC : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>NTAP : 2016-07-01</t>
+          <t>NOC : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>NVDA : 2015-04-01</t>
+          <t>NRG : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -5031,63 +5031,63 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>NVDA : 2015-10-01</t>
+          <t>NRG : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NWE : 2014-01-01</t>
+          <t>NTAP : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>OC : 2015-01-01</t>
+          <t>NVDA : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>OMC : 2014-07-01</t>
+          <t>NWE : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -5104,14 +5104,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>OMC : 2015-04-01</t>
+          <t>OGE : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>OMC : 2016-04-01</t>
+          <t>OLN : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>ORCL : 2013-04-01</t>
+          <t>ORCL : 2012-07-01</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>ORCL : 2013-07-01</t>
+          <t>ORCL : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>ORCL : 2013-10-01</t>
+          <t>ORCL : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5184,36 +5184,36 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>ORCL : 2016-01-01</t>
+          <t>ORCL : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>ORLY : 2012-10-01</t>
+          <t>ORCL : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>OTEX : 2012-10-01</t>
+          <t>ORCL : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -5240,14 +5240,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>OTEX : 2015-01-01</t>
+          <t>ORLY : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>OTEX : 2015-10-01</t>
+          <t>OTEX : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -5269,70 +5269,70 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>PAA : 2012-07-01</t>
+          <t>OTEX : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>PAA : 2014-07-01</t>
+          <t>OTEX : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>PAA : 2016-04-01</t>
+          <t>OXY : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>PAG : 2016-07-01</t>
+          <t>PAA : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>PBI : 2014-07-01</t>
+          <t>PAG : 2015-10-01</t>
         </is>
       </c>
     </row>
@@ -5354,12 +5354,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>PCAR : 2013-01-01</t>
+          <t>PBI : 2012-10-01</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>PCAR : 2016-01-01</t>
+          <t>PCAR : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -5410,24 +5410,24 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>PCG : 2012-01-01</t>
+          <t>PCG : 2013-04-01</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>PCG : 2012-10-01</t>
+          <t>PCG : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>PCG : 2015-01-01</t>
+          <t>PEG : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>PCG : 2015-07-01</t>
+          <t>PEG : 2014-07-01</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>PCG : 2015-10-01</t>
+          <t>PEG : 2014-10-01</t>
         </is>
       </c>
     </row>
@@ -5490,12 +5490,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>PEG : 2014-04-01</t>
+          <t>PEG : 2015-01-01</t>
         </is>
       </c>
     </row>
@@ -5512,14 +5512,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>PEG : 2015-07-01</t>
+          <t>PEG : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>PEP : 2011-07-01</t>
+          <t>PEP : 2014-04-01</t>
         </is>
       </c>
     </row>
@@ -5546,82 +5546,82 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>PEP : 2014-04-01</t>
+          <t>PEP : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>PKI : 2012-04-01</t>
+          <t>PEP : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>PNM : 2012-07-01</t>
+          <t>PEP : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>PNW : 2014-04-01</t>
+          <t>PFGC : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>POR : 2012-01-01</t>
+          <t>PNM : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>POR : 2012-07-01</t>
+          <t>PNM : 2013-10-01</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>POR : 2016-01-01</t>
+          <t>PNW : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -5665,65 +5665,65 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>POR : 2016-07-01</t>
+          <t>POR : 2012-10-01</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>PVH : 2015-10-01</t>
+          <t>POR : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>ROK : 2012-04-01</t>
+          <t>POST : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>ROP : 2016-01-01</t>
+          <t>PSX : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>RRC : 2013-04-01</t>
+          <t>PSX : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -5750,14 +5750,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>RRC : 2015-07-01</t>
+          <t>PXD : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5767,14 +5767,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>RRC : 2015-10-01</t>
+          <t>RHP : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>RS : 2015-07-01</t>
+          <t>RRC : 2012-04-01</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5801,14 +5801,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>RS : 2016-01-01</t>
+          <t>RRC : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5818,14 +5818,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>RS : 2016-04-01</t>
+          <t>RRC : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5835,218 +5835,218 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>SALM : 2014-10-01</t>
+          <t>RRC : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>SBAC : 2014-10-01</t>
+          <t>RS : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>SBGI : 2015-07-01</t>
+          <t>RS : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>SBUX : 2012-01-01</t>
+          <t>RS : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>SBUX : 2015-01-01</t>
+          <t>RS : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>SBUX : 2016-01-01</t>
+          <t>SALM : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>SBUX : 2016-07-01</t>
+          <t>SALM : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>SLCA : 2014-10-01</t>
+          <t>SBAC : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>SNA : 2015-04-01</t>
+          <t>SBGI : 2015-07-01</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>SPR : 2016-07-01</t>
+          <t>SBGI : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>SSP : 2015-04-01</t>
+          <t>SBUX : 2012-10-01</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>SSP : 2015-10-01</t>
+          <t>SBUX : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>SSP : 2016-01-01</t>
+          <t>SBUX : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>SSP : 2016-10-01</t>
+          <t>SCCO : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -6073,133 +6073,133 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>STX : 2016-04-01</t>
+          <t>SEAS : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>SWK : 2014-04-01</t>
+          <t>SLCA : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>SWN : 2015-07-01</t>
+          <t>SLCA : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>SWN : 2015-10-01</t>
+          <t>SLGN : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>SXC : 2016-01-01</t>
+          <t>SM : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>SYK : 2016-07-01</t>
+          <t>SM : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>TDS : 2013-10-01</t>
+          <t>SNA : 2014-04-01</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>TDS : 2016-07-01</t>
+          <t>SRE : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>TFX : 2013-10-01</t>
+          <t>SRE : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>TGI : 2014-10-01</t>
+          <t>SSP : 2015-04-01</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>TGNA : 2016-07-01</t>
+          <t>SSP : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -6260,31 +6260,31 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>TGNA : 2016-10-01</t>
+          <t>STLD : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>TGT : 2013-04-01</t>
+          <t>STX : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6294,48 +6294,48 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>TGT : 2016-10-01</t>
+          <t>STX : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>THC : 2014-10-01</t>
+          <t>STX : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>THC : 2016-04-01</t>
+          <t>STX : 2015-04-01</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6345,65 +6345,65 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>THS : 2013-10-01</t>
+          <t>STX : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>THS : 2015-10-01</t>
+          <t>SWN : 2015-10-01</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>TMUS : 2015-01-01</t>
+          <t>SWN : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>TMUS : 2016-01-01</t>
+          <t>SYK : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6413,31 +6413,31 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>TMUS : 2016-04-01</t>
+          <t>TDG : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>TOL : 2014-01-01</t>
+          <t>TEX : 2013-01-01</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6447,14 +6447,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>TOL : 2016-04-01</t>
+          <t>TEX : 2013-10-01</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>TUP : 2016-04-01</t>
+          <t>TEX : 2016-04-01</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6481,41 +6481,41 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>TUP : 2016-07-01</t>
+          <t>TGI : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>TWI : 2014-04-01</t>
+          <t>TGI : 2015-01-01</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>TXN : 2015-01-01</t>
+          <t>TGNA : 2016-07-01</t>
         </is>
       </c>
     </row>
@@ -6527,19 +6527,19 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>TXN : 2016-04-01</t>
+          <t>TGT : 2013-07-01</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6549,41 +6549,41 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>UHS : 2016-10-01</t>
+          <t>TGT : 2014-07-01</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>UIS : 2015-01-01</t>
+          <t>TGT : 2014-10-01</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>USM : 2015-04-01</t>
+          <t>TGT : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>VC : 2016-01-01</t>
+          <t>THC : 2012-07-01</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>VC : 2016-04-01</t>
+          <t>TKR : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -6634,31 +6634,31 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>VGR : 2015-10-01</t>
+          <t>TMUS : 2016-01-01</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>VGR : 2016-07-01</t>
+          <t>TMUS : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -6668,24 +6668,24 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>WBA : 2014-01-01</t>
+          <t>TMUS : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>WEC : 2015-07-01</t>
+          <t>TOL : 2016-10-01</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>WM : 2016-01-01</t>
+          <t>TRMB : 2016-01-01</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>WMB : 2014-07-01</t>
+          <t>TRS : 2014-01-01</t>
         </is>
       </c>
     </row>
@@ -6736,24 +6736,24 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>WMB : 2014-10-01</t>
+          <t>TRS : 2016-10-01</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>WTI : 2014-01-01</t>
+          <t>TUP : 2016-04-01</t>
         </is>
       </c>
     </row>
@@ -6770,41 +6770,41 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>WWW : 2016-04-01</t>
+          <t>TUP : 2016-07-01</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>XEL : 2016-07-01</t>
+          <t>TWI : 2014-01-01</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>XOM : 2014-01-01</t>
+          <t>TWI : 2015-07-01</t>
         </is>
       </c>
     </row>
@@ -6816,12 +6816,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>YUM : 2014-04-01</t>
+          <t>TXN : 2013-01-01</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,454 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>ZBRA : 2016-04-01</t>
+          <t>UHS : 2016-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>UIS : 2013-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>UIS : 2014-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>UIS : 2015-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>UIS : 2015-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>UIS : 2016-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>UPS : 2015-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>URI : 2013-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>USM : 2013-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>USM : 2014-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>VGR : 2014-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>VMC : 2014-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>VMI : 2014-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>VSH : 2014-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>WBA : 2013-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>WEC : 2015-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>WM : 2016-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>WM : 2016-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>WMB : 2013-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>WTI : 2014-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>XEL : 2013-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>XEL : 2016-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>XEL : 2016-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>XEL : 2016-10-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>XOM : 2016-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>YUM : 2015-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>ZBRA : 2016-10-01</t>
         </is>
       </c>
     </row>

--- a/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">

--- a/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/exclude_previous_rating_model_1_predictions.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
